--- a/EddyCurrent/TEAM W.S. Problem 7.xlsx
+++ b/EddyCurrent/TEAM W.S. Problem 7.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>nv</t>
     <phoneticPr fontId="1"/>
@@ -41,15 +41,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Bz0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Wm</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Je</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Um</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Adative</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Adaptive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Simple</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -145,88 +161,76 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$13</c:f>
+              <c:f>Sheet1!$B$6:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6.067217413039656E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3957915828555733E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4686850557559931E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6222802101953315E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5604357367807961E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1146367028598368E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4480214651201099E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.9888033471339648E-4</c:v>
-                </c:pt>
+                <c:ptCount val="14"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$6:$M$13</c:f>
+              <c:f>Sheet1!$Q$6:$Q$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.7242838154791897</c:v>
+                  <c:v>4.7434964097090693E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7225638631586797</c:v>
+                  <c:v>1.0798949611375884E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.72644929052852</c:v>
+                  <c:v>2.9702450084472535E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7263635937795598</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.7330036350295996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7342884295936702</c:v>
+                  <c:v>6.8911162163570324E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7340336892087302</c:v>
+                  <c:v>2.5943000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7353489515384899</c:v>
+                  <c:v>4.7434964097090693E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2548396252225459E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.040578313063951E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.101280976333635E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6226698830025043E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6103193067253849E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3911906059120406E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="111817856"/>
-        <c:axId val="132032384"/>
+        <c:axId val="148786176"/>
+        <c:axId val="154382720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111817856"/>
+        <c:axId val="148786176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132032384"/>
+        <c:crossAx val="154382720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="132032384"/>
+        <c:axId val="154382720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -234,7 +238,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111817856"/>
+        <c:crossAx val="148786176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -247,7 +251,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -274,88 +278,76 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$13</c:f>
+              <c:f>Sheet1!$B$6:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6.067217413039656E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3957915828555733E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4686850557559931E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6222802101953315E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5604357367807961E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1146367028598368E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4480214651201099E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.9888033471339648E-4</c:v>
-                </c:pt>
+                <c:ptCount val="14"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$13</c:f>
+              <c:f>Sheet1!$L$6:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.6958226341725102E-3</c:v>
+                  <c:v>5.0979397521908488E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6950208460682296E-3</c:v>
+                  <c:v>2.0244448155902488E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7089712553095497E-3</c:v>
+                  <c:v>4.4048576258997772E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.71025855481382E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.7292256797679903E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7329310395755903E-3</c:v>
+                  <c:v>1.4980758405798414E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7346884151551402E-3</c:v>
+                  <c:v>3.5829999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7374765890898897E-3</c:v>
+                  <c:v>5.0979397521908488E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2493561285820969E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3049008035584432E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6592184264574001E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8182108567394278E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5626636602846366E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0142844127537905E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="113964160"/>
-        <c:axId val="113712512"/>
+        <c:axId val="150502784"/>
+        <c:axId val="150516864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113964160"/>
+        <c:axId val="150502784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113712512"/>
+        <c:crossAx val="150516864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113712512"/>
+        <c:axId val="150516864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -363,7 +355,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113964160"/>
+        <c:crossAx val="150502784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -376,7 +368,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -393,10 +385,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.207039745031871"/>
-          <c:y val="0.14284509400353732"/>
-          <c:w val="0.66174805072442866"/>
-          <c:h val="0.63062604544898204"/>
+          <c:x val="0.20703974503187103"/>
+          <c:y val="0.14284509400353734"/>
+          <c:w val="0.66174805072442888"/>
+          <c:h val="0.63062604544898215"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -417,71 +409,61 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$13</c:f>
+              <c:f>Sheet1!$B$7:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5.3957915828555733E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4686850557559931E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6222802101953315E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5604357367807961E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1146367028598368E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.4480214651201099E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.9888033471339648E-4</c:v>
-                </c:pt>
+                <c:ptCount val="13"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$7:$M$13</c:f>
+              <c:f>Sheet1!$Q$7:$Q$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4.7225638631586797</c:v>
+                  <c:v>1.0798949611375884E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.72644929052852</c:v>
+                  <c:v>2.9702450084472535E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7263635937795598</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.7330036350295996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.7342884295936702</c:v>
+                  <c:v>6.8911162163570324E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7340336892087302</c:v>
+                  <c:v>2.5943000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7353489515384899</c:v>
+                  <c:v>4.7434964097090693E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2548396252225459E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.040578313063951E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.101280976333635E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6226698830025043E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6103193067253849E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3911906059120406E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="114793472"/>
-        <c:axId val="132052480"/>
+        <c:axId val="152806912"/>
+        <c:axId val="152808448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114793472"/>
+        <c:axId val="152806912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,12 +471,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132052480"/>
+        <c:crossAx val="152808448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="132052480"/>
+        <c:axId val="152808448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.74"/>
@@ -522,7 +504,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114793472"/>
+        <c:crossAx val="152806912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -540,10 +522,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.52062987318892828"/>
-          <c:y val="0.2071063332109393"/>
-          <c:w val="0.21248473748473748"/>
-          <c:h val="0.15615641956672516"/>
+          <c:x val="0.5206298731889285"/>
+          <c:y val="0.20710633321093933"/>
+          <c:w val="0.21248473748473751"/>
+          <c:h val="0.15615641956672521"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -556,7 +538,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -567,6 +549,245 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ja-JP"/>
   <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$E$6:$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ne</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9812</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13622</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38562</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$6:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.2592751880738539E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8600717737123161E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8208035786005926E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3925362678328865E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.029E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2592751880738539E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1915750144800712E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.42204147849379E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.134707125413071E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7044508551701024E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6273879234014158E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.780066324130252E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$E$6:$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ne</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9812</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13622</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23408</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38562</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$6:$R$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.8857940515888027E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8960695044624399E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2284700743048706E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4000945390250786E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8857940515888027E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4637620743415971E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6265882175474056E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0022165238429327E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2889351886022656E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3092367977453305E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4497132032228316E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="128241024"/>
+        <c:axId val="128239488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="128241024"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128239488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="128239488"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128241024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
@@ -574,117 +795,444 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21093285214348206"/>
-          <c:y val="0.10684055118110236"/>
-          <c:w val="0.58035170603674535"/>
-          <c:h val="0.63829068241469811"/>
+          <c:x val="0.1945016155158823"/>
+          <c:y val="0.13195610965296004"/>
+          <c:w val="0.54882907582096796"/>
+          <c:h val="0.65021216097987755"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Um</c:v>
+            <c:v>Simple,Um</c:v>
           </c:tx>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.2203412073490819E-2"/>
-                  <c:y val="-5.8996792067658212E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="#,##0.000000_);\(#,##0.000000\)" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$13</c:f>
+              <c:f>Sheet1!$E$25:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.3957915828555733E-3</c:v>
+                  <c:v>2116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4686850557559931E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6222802101953315E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5604357367807961E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1146367028598368E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.4480214651201099E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.9888033471339648E-4</c:v>
+                  <c:v>16928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$7:$L$13</c:f>
+              <c:f>Sheet1!$N$25:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.6950208460682296E-3</c:v>
+                  <c:v>6.0076093038081294E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7089712553095497E-3</c:v>
+                  <c:v>1.5567082701833106E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Adaptive,Um</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.71025855481382E-3</c:v>
+                  <c:v>18872</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7292256797679903E-3</c:v>
+                  <c:v>39968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$6:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.0076093038081294E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2184234086065112E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8629052759125451E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1046754042639377E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Simple,Wj</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$25:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$25:$S$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.3545419495655019E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3655645627873934E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Adaptive,Wj</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.3545419495655019E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5256068640294184E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6267004492509868E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0886073835527434E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$13:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9812</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7329310395755903E-3</c:v>
+                  <c:v>23199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7346884151551402E-3</c:v>
+                  <c:v>23408</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7374765890898897E-3</c:v>
+                  <c:v>38562</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$13:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.0076093038081294E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8557192601845723E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5701212293630497E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0220433082001007E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3184310963869219E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.020171639470297E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2812079636611908E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1999331699517102E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$13:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9812</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13622</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38562</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$13:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.3545419495655019E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3563520226612379E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3528098571258644E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0662378152134299E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9599929500871377E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9651094972760661E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4194723494468419E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8457800551462915E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
         <c:dLbls/>
-        <c:axId val="113662208"/>
-        <c:axId val="113672960"/>
+        <c:axId val="58816000"/>
+        <c:axId val="58793984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113662208"/>
+        <c:axId val="58816000"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Nelem</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113672960"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="58793984"/>
+        <c:crossesAt val="1.0000000000000002E-4"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113672960"/>
+        <c:axId val="58793984"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="4.7400000000000012E-3"/>
-          <c:min val="4.6900000000000006E-3"/>
+          <c:max val="0.1"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -695,12 +1243,22 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1100">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Um</a:t>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Relative error</a:t>
                 </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -709,54 +1267,22 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113662208"/>
+        <c:crossAx val="58816000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.50490266841644793"/>
-          <c:y val="0.1616531787693205"/>
-          <c:w val="0.21454177602799651"/>
-          <c:h val="0.2229899387576553"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </c:spPr>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr b="1"/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -764,16 +1290,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -795,15 +1321,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -824,16 +1350,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -855,19 +1381,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvPr id="6" name="グラフ 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -877,6 +1403,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -912,44 +1468,6 @@
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="1996440" y="2453640"/>
-          <a:ext cx="426720" cy="290532"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.45833</cdr:x>
-      <cdr:y>0.83056</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.55167</cdr:x>
-      <cdr:y>0.93647</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="2" name="chart"/>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2095500" y="2278380"/>
           <a:ext cx="426720" cy="290532"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -1246,18 +1764,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:W13"/>
+  <dimension ref="C4:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="13" max="13" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:23" ht="15">
+    <row r="4" spans="3:31">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="3:31" ht="15">
       <c r="D5" t="s">
         <v>0</v>
       </c>
@@ -1277,580 +1804,1076 @@
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" t="s">
-        <v>8</v>
-      </c>
-      <c r="U5" t="s">
-        <v>1</v>
-      </c>
-      <c r="V5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W5" t="s">
-        <v>8</v>
-      </c>
+      <c r="L5" s="1">
+        <v>3.5829999999999998E-3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-1.029E-3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1">
+        <v>2.5941529999999999</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="2:23" ht="15">
-      <c r="B6">
-        <f>POWER(E6, -2/3)</f>
-        <v>6.067217413039656E-3</v>
-      </c>
+    <row r="6" spans="3:31" ht="15">
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>105</v>
+        <v>448</v>
       </c>
       <c r="E6" s="1">
         <v>2116</v>
       </c>
       <c r="F6" s="1">
-        <v>3368</v>
+        <v>32344</v>
       </c>
       <c r="G6" s="1">
-        <v>158502</v>
+        <v>1915642</v>
       </c>
       <c r="H6" s="1">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="I6" s="1">
-        <v>4.4808600010583101E-2</v>
+        <v>1.17103660000429</v>
       </c>
       <c r="J6" s="1">
-        <v>0.484746346188136</v>
+        <v>3.5647340818679E-3</v>
       </c>
       <c r="K6" s="1">
-        <v>0.83523795601949602</v>
-      </c>
-      <c r="L6" s="1">
-        <v>4.6958226341725102E-3</v>
-      </c>
-      <c r="M6" s="1">
-        <v>4.7242838154791897</v>
-      </c>
-      <c r="N6" t="e">
-        <f>ABS(L6-L$3)/L$3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O6" t="e">
-        <f>ABS(M6-M$3)/M$3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6">
-        <f>POWER(Q6, -2/3)</f>
-        <v>2.8394603542583455E-2</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>209</v>
-      </c>
-      <c r="R6" s="1">
-        <v>43876.747058957</v>
-      </c>
-      <c r="S6" s="1">
-        <v>51276.371732610402</v>
-      </c>
-      <c r="T6">
-        <f>POWER(U6, -2/3)</f>
-        <v>2.3589964027269698E-2</v>
-      </c>
-      <c r="U6" s="1">
-        <v>276</v>
-      </c>
-      <c r="V6" s="1">
-        <v>43867.633449333698</v>
-      </c>
-      <c r="W6" s="1">
-        <v>51322.651474181599</v>
-      </c>
+        <v>-1.0419579416852799E-3</v>
+      </c>
+      <c r="L6">
+        <f>ABS(J6-L$5)/L$5</f>
+        <v>5.0979397521908488E-3</v>
+      </c>
+      <c r="M6">
+        <f>-ABS(K6-M$5)/M$5</f>
+        <v>1.2592751880738539E-2</v>
+      </c>
+      <c r="N6">
+        <f>SQRT((J6-L$5)^2+(K6-M$5)^2)/SQRT(L$5^2+M$5^2)</f>
+        <v>6.0076093038081294E-3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2.4710994455826398</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2.5794842663009501</v>
+      </c>
+      <c r="Q6">
+        <f>ABS(O6-Q$5)/Q$5</f>
+        <v>4.7434964097090693E-2</v>
+      </c>
+      <c r="R6">
+        <f>ABS(P6-R$5)/R$5</f>
+        <v>3.8857940515888027E-2</v>
+      </c>
+      <c r="S6">
+        <f>SQRT((O6-Q$5)^2+(P6-R$5)^2)/SQRT(Q$5^2+R$5^2)</f>
+        <v>4.3545419495655019E-2</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="2:23" ht="15">
-      <c r="B7">
-        <f t="shared" ref="B7:B13" si="0">POWER(E7, -2/3)</f>
-        <v>5.3957915828555733E-3</v>
-      </c>
+    <row r="7" spans="3:31" ht="15">
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>316</v>
+        <v>1616</v>
       </c>
       <c r="E7" s="1">
-        <v>2523</v>
+        <v>8480</v>
       </c>
       <c r="F7" s="1">
-        <v>9523</v>
+        <v>127010</v>
       </c>
       <c r="G7" s="1">
-        <v>515219</v>
+        <v>7375394</v>
       </c>
       <c r="H7" s="1">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="I7" s="1">
-        <v>0.25977430000784801</v>
+        <v>8.0106233000115008</v>
       </c>
       <c r="J7" s="1">
-        <v>0.45955625904484299</v>
+        <v>3.57574641422574E-3</v>
       </c>
       <c r="K7" s="1">
-        <v>0.82253943171544996</v>
-      </c>
-      <c r="L7" s="1">
-        <v>4.6950208460682296E-3</v>
-      </c>
-      <c r="M7" s="1">
-        <v>4.7225638631586797</v>
-      </c>
-      <c r="N7" t="e">
-        <f t="shared" ref="N7:O12" si="1">ABS(L7-L$3)/L$3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P7">
-        <f t="shared" ref="P7:P12" si="2">POWER(Q7, -2/3)</f>
-        <v>1.2541418807821739E-2</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>712</v>
-      </c>
-      <c r="R7" s="1">
-        <v>43869.935252372998</v>
-      </c>
-      <c r="S7" s="1">
-        <v>51266.894289933603</v>
-      </c>
-      <c r="T7">
-        <f t="shared" ref="T7:T12" si="3">POWER(U7, -2/3)</f>
-        <v>8.8505717748640737E-3</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1201</v>
-      </c>
-      <c r="V7" s="1">
-        <v>43350.193065364001</v>
-      </c>
-      <c r="W7" s="1">
-        <v>51361.142313324097</v>
-      </c>
+        <v>-1.0329720138551499E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:M9" si="0">ABS(J7-L$5)/L$5</f>
+        <v>2.0244448155902488E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M9" si="1">-ABS(K7-M$5)/M$5</f>
+        <v>3.8600717737123161E-3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N9" si="2">SQRT((J7-L$5)^2+(K7-M$5)^2)/SQRT(L$5^2+M$5^2)</f>
+        <v>2.2184234086065112E-3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2.59135158724688</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2.4782920594204199</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q9" si="3">ABS(O7-Q$5)/Q$5</f>
+        <v>1.0798949611375884E-3</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:R9" si="4">ABS(P7-R$5)/R$5</f>
+        <v>1.8960695044624399E-3</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7:S9" si="5">SQRT((O7-Q$5)^2+(P7-R$5)^2)/SQRT(Q$5^2+R$5^2)</f>
+        <v>1.5256068640294184E-3</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="2:23" ht="15">
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>3.4686850557559931E-3</v>
-      </c>
+    <row r="8" spans="3:31" ht="15">
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>895</v>
+        <v>3503</v>
       </c>
       <c r="E8" s="1">
-        <v>4895</v>
+        <v>18872</v>
       </c>
       <c r="F8" s="1">
-        <v>54026</v>
+        <v>280688</v>
       </c>
       <c r="G8" s="1">
-        <v>2686968</v>
+        <v>16140156</v>
       </c>
       <c r="H8" s="1">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="I8" s="1">
-        <v>1.4649351999978499</v>
+        <v>18.523849799996199</v>
       </c>
       <c r="J8" s="1">
-        <v>-9.11462974859647E-2</v>
+        <v>3.5814217395126399E-3</v>
       </c>
       <c r="K8" s="1">
-        <v>7.2554285869626006E-2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>4.7089712553095497E-3</v>
-      </c>
-      <c r="M8" s="1">
-        <v>4.72644929052852</v>
-      </c>
-      <c r="N8" t="e">
+        <v>-1.03190260688238E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>4.4048576258997772E-4</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8">
+        <v>2.8208035786005926E-3</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="2"/>
-        <v>5.201076439825667E-3</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>2666</v>
-      </c>
-      <c r="R8" s="1">
-        <v>43425.458661659301</v>
-      </c>
-      <c r="S8" s="1">
-        <v>51460.983007263698</v>
-      </c>
-      <c r="T8">
+        <v>8.8629052759125451E-4</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2.5933824730000601</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2.4819500708805502</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="3"/>
-        <v>4.6291811951746078E-3</v>
-      </c>
-      <c r="U8" s="1">
-        <v>3175</v>
-      </c>
-      <c r="V8" s="1">
-        <v>43327.347302153597</v>
-      </c>
-      <c r="W8" s="1">
-        <v>51344.228397478102</v>
-      </c>
+        <v>2.9702450084472535E-4</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="4"/>
+        <v>4.2284700743048706E-4</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>3.6267004492509868E-4</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="2:23" ht="15">
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>2.6222802101953315E-3</v>
-      </c>
+    <row r="9" spans="3:31" ht="15">
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>1316</v>
+        <v>7318</v>
       </c>
       <c r="E9" s="1">
-        <v>7447</v>
+        <v>39968</v>
       </c>
       <c r="F9" s="1">
-        <v>81814</v>
+        <v>597773</v>
       </c>
       <c r="G9" s="1">
-        <v>4221941</v>
+        <v>35110105</v>
       </c>
       <c r="H9" s="1">
-        <v>174</v>
+        <v>239</v>
       </c>
       <c r="I9" s="1">
-        <v>3.7494918000011199</v>
+        <v>50.861730199991101</v>
       </c>
       <c r="J9" s="1">
-        <v>-9.7453597931889693E-2</v>
+        <v>3.5824632394263201E-3</v>
       </c>
       <c r="K9" s="1">
-        <v>6.3962709471409696E-2</v>
-      </c>
-      <c r="L9" s="1">
-        <v>4.71025855481382E-3</v>
-      </c>
-      <c r="M9" s="1">
-        <v>4.7263635937795598</v>
-      </c>
-      <c r="N9" t="e">
+        <v>-1.0304329198196E-3</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1.4980758405798414E-4</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9">
+        <v>1.3925362678328865E-3</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="2"/>
-        <v>5.0361832767190943E-3</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>2798</v>
-      </c>
-      <c r="R9" s="1">
-        <v>43425.690398228697</v>
-      </c>
-      <c r="S9" s="1">
-        <v>51461.344766818103</v>
-      </c>
-      <c r="T9">
+        <v>4.1046754042639377E-4</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2.5939742339019398</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2.4826523565259602</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="3"/>
-        <v>3.747503846792961E-3</v>
-      </c>
-      <c r="U9" s="1">
-        <v>4359</v>
-      </c>
-      <c r="V9" s="1">
-        <v>43294.767433335801</v>
-      </c>
-      <c r="W9" s="1">
-        <v>51350.8734899993</v>
-      </c>
+        <v>6.8911162163570324E-5</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="4"/>
+        <v>1.4000945390250786E-4</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="5"/>
+        <v>1.0886073835527434E-4</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="2:23" ht="15">
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>1.5604357367807961E-3</v>
-      </c>
-      <c r="C10">
+    <row r="10" spans="3:31" ht="15">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="3:31" ht="15">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="3:31" ht="15">
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1">
-        <v>2380</v>
-      </c>
-      <c r="E10" s="1">
-        <v>16223</v>
-      </c>
-      <c r="F10" s="1">
-        <v>154656</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8025074</v>
-      </c>
-      <c r="H10" s="1">
-        <v>159</v>
-      </c>
-      <c r="I10" s="1">
-        <v>7.1772972999897302</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-0.11547417755999199</v>
-      </c>
-      <c r="K10" s="1">
-        <v>6.9345157653836101E-2</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4.7292256797679903E-3</v>
-      </c>
-      <c r="M10" s="1">
-        <v>4.7330036350295996</v>
-      </c>
-      <c r="N10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="2"/>
-        <v>2.6455410318490568E-3</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>7349</v>
-      </c>
-      <c r="R10" s="1">
-        <v>43275.689620440397</v>
-      </c>
-      <c r="S10" s="1">
-        <v>51348.0972970191</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="3"/>
-        <v>2.1851346586013731E-3</v>
-      </c>
-      <c r="U10" s="1">
-        <v>9790</v>
-      </c>
-      <c r="V10" s="1">
-        <v>43251.708675861199</v>
-      </c>
-      <c r="W10" s="1">
-        <v>51364.391571068998</v>
-      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3.5829999999999998E-3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1.029E-3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1">
+        <v>2.5943000000000001</v>
+      </c>
+      <c r="R12" s="1">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
-    <row r="11" spans="2:23" ht="15">
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>1.1146367028598368E-3</v>
-      </c>
-      <c r="C11">
+    <row r="13" spans="3:31" ht="15">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>448</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2116</v>
+      </c>
+      <c r="F13" s="1">
+        <v>32344</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1915642</v>
+      </c>
+      <c r="H13" s="1">
+        <v>119</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.17103660000429</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3.5647340818679E-3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>-1.0419579416852799E-3</v>
+      </c>
+      <c r="L13">
+        <f>ABS(J13-L$5)/L$5</f>
+        <v>5.0979397521908488E-3</v>
+      </c>
+      <c r="M13">
+        <f>-ABS(K13-M$5)/M$5</f>
+        <v>1.2592751880738539E-2</v>
+      </c>
+      <c r="N13">
+        <f>SQRT((J13-L$5)^2+(K13-M$5)^2)/SQRT(L$5^2+M$5^2)</f>
+        <v>6.0076093038081294E-3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2.4710994455826398</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2.5794842663009501</v>
+      </c>
+      <c r="Q13">
+        <f>ABS(O13-Q$5)/Q$5</f>
+        <v>4.7434964097090693E-2</v>
+      </c>
+      <c r="R13">
+        <f>ABS(P13-R$5)/R$5</f>
+        <v>3.8857940515888027E-2</v>
+      </c>
+      <c r="S13">
+        <f>SQRT((O13-Q$5)^2+(P13-R$5)^2)/SQRT(Q$5^2+R$5^2)</f>
+        <v>4.3545419495655019E-2</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="3:31" ht="15">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5174</v>
+      </c>
+      <c r="F14" s="1">
+        <v>77771</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4524271</v>
+      </c>
+      <c r="H14" s="1">
+        <v>200</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4.8548747000022496</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3.5713575569912902E-3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-1.0374291306899E-3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L15" si="6">ABS(J14-L$5)/L$5</f>
+        <v>3.2493561285820969E-3</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M15" si="7">-ABS(K14-M$5)/M$5</f>
+        <v>8.1915750144800712E-3</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N15" si="8">SQRT((J14-L$5)^2+(K14-M$5)^2)/SQRT(L$5^2+M$5^2)</f>
+        <v>3.8557192601845723E-3</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2.58570944802171</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2.4743994787694099</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14:Q15" si="9">ABS(O14-Q$5)/Q$5</f>
+        <v>3.2548396252225459E-3</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ref="R14:R15" si="10">ABS(P14-R$5)/R$5</f>
+        <v>3.4637620743415971E-3</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ref="S14:S15" si="11">SQRT((O14-Q$5)^2+(P14-R$5)^2)/SQRT(Q$5^2+R$5^2)</f>
+        <v>3.3563520226612379E-3</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="3:31" ht="15">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1859</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9812</v>
+      </c>
+      <c r="F15" s="1">
+        <v>146888</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8537173</v>
+      </c>
+      <c r="H15" s="1">
+        <v>212</v>
+      </c>
+      <c r="I15" s="1">
+        <v>9.4945698999945307</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3.5783245404208499E-3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-1.0325212806813701E-3</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>1.3049008035584432E-3</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="7"/>
+        <v>3.42204147849379E-3</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="8"/>
+        <v>1.5701212293630497E-3</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2.5914535806474301</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2.4789611814558299</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="9"/>
+        <v>1.040578313063951E-3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="10"/>
+        <v>1.6265882175474056E-3</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="11"/>
+        <v>1.3528098571258644E-3</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="3:31" ht="15">
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2553</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13622</v>
+      </c>
+      <c r="F16" s="1">
+        <v>203586</v>
+      </c>
+      <c r="G16" s="1">
+        <v>11829240</v>
+      </c>
+      <c r="H16" s="1">
+        <v>243</v>
+      </c>
+      <c r="I16" s="1">
+        <v>15.354403699995601</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3.5809723020378001E-3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-1.03222561363205E-3</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16" si="12">ABS(J16-L$5)/L$5</f>
+        <v>5.6592184264574001E-4</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16" si="13">-ABS(K16-M$5)/M$5</f>
+        <v>3.134707125413071E-3</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ref="N16" si="14">SQRT((J16-L$5)^2+(K16-M$5)^2)/SQRT(L$5^2+M$5^2)</f>
+        <v>1.0220433082001007E-3</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2.59231081906514</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2.4807647496371299</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16" si="15">ABS(O16-Q$5)/Q$5</f>
+        <v>7.101280976333635E-4</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ref="R16" si="16">ABS(P16-R$5)/R$5</f>
+        <v>9.0022165238429327E-4</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ref="S16" si="17">SQRT((O16-Q$5)^2+(P16-R$5)^2)/SQRT(Q$5^2+R$5^2)</f>
+        <v>8.0662378152134299E-4</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="3:31" ht="15">
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4280</v>
+      </c>
+      <c r="E17" s="1">
+        <v>23199</v>
+      </c>
+      <c r="F17" s="1">
+        <v>345088</v>
+      </c>
+      <c r="G17" s="1">
+        <v>19883932</v>
+      </c>
+      <c r="H17" s="1">
+        <v>215</v>
+      </c>
+      <c r="I17" s="1">
+        <v>25.580847500008499</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3.5816319350500301E-3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-1.03178287992997E-3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17" si="18">ABS(J17-L$5)/L$5</f>
+        <v>3.8182108567394278E-4</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17" si="19">-ABS(K17-M$5)/M$5</f>
+        <v>2.7044508551701024E-3</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17" si="20">SQRT((J17-L$5)^2+(K17-M$5)^2)/SQRT(L$5^2+M$5^2)</f>
+        <v>8.3184310963869219E-4</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2.5934726393054999</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2.4821833573926702</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ref="Q17" si="21">ABS(O17-Q$5)/Q$5</f>
+        <v>2.6226698830025043E-4</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ref="R17" si="22">ABS(P17-R$5)/R$5</f>
+        <v>3.2889351886022656E-4</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ref="S17" si="23">SQRT((O17-Q$5)^2+(P17-R$5)^2)/SQRT(Q$5^2+R$5^2)</f>
+        <v>2.9599929500871377E-4</v>
+      </c>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="3:31" ht="15">
+      <c r="C18">
         <v>5</v>
       </c>
-      <c r="D11" s="1">
-        <v>4842</v>
-      </c>
-      <c r="E11" s="1">
-        <v>26872</v>
-      </c>
-      <c r="F11" s="1">
-        <v>339380</v>
-      </c>
-      <c r="G11" s="1">
-        <v>17801350</v>
-      </c>
-      <c r="H11" s="1">
-        <v>163</v>
-      </c>
-      <c r="I11" s="1">
-        <v>18.730708599992699</v>
-      </c>
-      <c r="J11" s="1">
-        <v>-0.11733191992270001</v>
-      </c>
-      <c r="K11" s="1">
-        <v>6.9728550815815901E-2</v>
-      </c>
-      <c r="L11" s="1">
-        <v>4.7329310395755903E-3</v>
-      </c>
-      <c r="M11" s="1">
-        <v>4.7342884295936702</v>
-      </c>
-      <c r="N11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
-        <v>1.2210458914379795E-3</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>23437</v>
-      </c>
-      <c r="R11" s="1">
-        <v>43245.489811792897</v>
-      </c>
-      <c r="S11" s="1">
-        <v>51363.016042917901</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="3"/>
-        <v>1.4065448770768864E-3</v>
-      </c>
-      <c r="U11" s="1">
-        <v>18957</v>
-      </c>
-      <c r="V11" s="1">
-        <v>43244.021149754299</v>
-      </c>
-      <c r="W11" s="1">
-        <v>51366.556703505899</v>
-      </c>
+      <c r="D18" s="1">
+        <v>4316</v>
+      </c>
+      <c r="E18" s="1">
+        <v>23408</v>
+      </c>
+      <c r="F18" s="1">
+        <v>348086</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20039924</v>
+      </c>
+      <c r="H18" s="1">
+        <v>212</v>
+      </c>
+      <c r="I18" s="1">
+        <v>26.580006500007499</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3.5817234976105198E-3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>-1.03170358217318E-3</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18" si="24">ABS(J18-L$5)/L$5</f>
+        <v>3.5626636602846366E-4</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18" si="25">-ABS(K18-M$5)/M$5</f>
+        <v>2.6273879234014158E-3</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18" si="26">SQRT((J18-L$5)^2+(K18-M$5)^2)/SQRT(L$5^2+M$5^2)</f>
+        <v>8.020171639470297E-4</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2.59347584323395</v>
+      </c>
+      <c r="P18" s="1">
+        <v>2.4821783165031199</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ref="Q18" si="27">ABS(O18-Q$5)/Q$5</f>
+        <v>2.6103193067253849E-4</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ref="R18" si="28">ABS(P18-R$5)/R$5</f>
+        <v>3.3092367977453305E-4</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18" si="29">SQRT((O18-Q$5)^2+(P18-R$5)^2)/SQRT(Q$5^2+R$5^2)</f>
+        <v>2.9651094972760661E-4</v>
+      </c>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
     </row>
-    <row r="12" spans="2:23" ht="15">
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>7.4480214651201099E-4</v>
-      </c>
-      <c r="C12">
+    <row r="19" spans="3:31" ht="15">
+      <c r="C19">
         <v>6</v>
       </c>
-      <c r="D12" s="1">
-        <v>7229</v>
-      </c>
-      <c r="E12" s="1">
-        <v>49197</v>
-      </c>
-      <c r="F12" s="1">
-        <v>511435</v>
-      </c>
-      <c r="G12" s="1">
-        <v>26998554</v>
-      </c>
-      <c r="H12" s="1">
-        <v>180</v>
-      </c>
-      <c r="I12" s="1">
-        <v>30.167621400003501</v>
-      </c>
-      <c r="J12" s="1">
-        <v>-0.117476203911396</v>
-      </c>
-      <c r="K12" s="1">
-        <v>6.9763999915326794E-2</v>
-      </c>
-      <c r="L12" s="1">
-        <v>4.7346884151551402E-3</v>
-      </c>
-      <c r="M12" s="1">
-        <v>4.7340336892087302</v>
-      </c>
-      <c r="N12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
-        <v>8.6017115243782491E-4</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>39639</v>
-      </c>
-      <c r="R12" s="1">
-        <v>43241.868224155798</v>
-      </c>
-      <c r="S12" s="1">
-        <v>51363.347225246602</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="3"/>
-        <v>9.8558644889164292E-4</v>
-      </c>
-      <c r="U12" s="1">
-        <v>32319</v>
-      </c>
-      <c r="V12" s="1">
-        <v>43241.513017277197</v>
-      </c>
-      <c r="W12" s="1">
-        <v>51365.188881980903</v>
-      </c>
+      <c r="D19" s="1">
+        <v>7069</v>
+      </c>
+      <c r="E19" s="1">
+        <v>38562</v>
+      </c>
+      <c r="F19" s="1">
+        <v>574453</v>
+      </c>
+      <c r="G19" s="1">
+        <v>33354774</v>
+      </c>
+      <c r="H19" s="1">
+        <v>282</v>
+      </c>
+      <c r="I19" s="1">
+        <v>54.770574499998403</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3.5822782818949101E-3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>-1.03083168824753E-3</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19" si="30">ABS(J19-L$5)/L$5</f>
+        <v>2.0142844127537905E-4</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19" si="31">-ABS(K19-M$5)/M$5</f>
+        <v>1.780066324130252E-3</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19" si="32">SQRT((J19-L$5)^2+(K19-M$5)^2)/SQRT(L$5^2+M$5^2)</f>
+        <v>5.2812079636611908E-4</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2.5937921038716101</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2.4826400362116399</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19" si="33">ABS(O19-Q$5)/Q$5</f>
+        <v>1.3911906059120406E-4</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19" si="34">ABS(P19-R$5)/R$5</f>
+        <v>1.4497132032228316E-4</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ref="S19" si="35">SQRT((O19-Q$5)^2+(P19-R$5)^2)/SQRT(Q$5^2+R$5^2)</f>
+        <v>1.4194723494468419E-4</v>
+      </c>
+      <c r="Y19" s="1"/>
     </row>
-    <row r="13" spans="2:23" ht="15">
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>4.9888033471339648E-4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>13571</v>
-      </c>
-      <c r="E13" s="1">
-        <v>89744</v>
-      </c>
-      <c r="F13" s="1">
-        <v>980192</v>
-      </c>
-      <c r="G13" s="1">
-        <v>51256175</v>
-      </c>
-      <c r="H13" s="1">
-        <v>275</v>
-      </c>
-      <c r="I13" s="1">
-        <v>86.227072300000103</v>
-      </c>
-      <c r="J13" s="1">
-        <v>-0.118478514631915</v>
-      </c>
-      <c r="K13" s="1">
-        <v>7.0072499353680706E-2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>4.7374765890898897E-3</v>
-      </c>
-      <c r="M13" s="1">
-        <v>4.7353489515384899</v>
-      </c>
-      <c r="T13" s="1"/>
+    <row r="20" spans="3:31" ht="15">
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9467</v>
+      </c>
+      <c r="E20" s="1">
+        <v>51829</v>
+      </c>
+      <c r="F20" s="1">
+        <v>770586</v>
+      </c>
+      <c r="G20" s="1">
+        <v>44574298</v>
+      </c>
+      <c r="H20" s="1">
+        <v>346</v>
+      </c>
+      <c r="I20" s="1">
+        <v>92.713793700007898</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3.5826956188847901E-3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>-1.03015339405725E-3</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20" si="36">ABS(J20-L$5)/L$5</f>
+        <v>8.4951469497549447E-5</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20" si="37">-ABS(K20-M$5)/M$5</f>
+        <v>1.120888296647217E-3</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20" si="38">SQRT((J20-L$5)^2+(K20-M$5)^2)/SQRT(L$5^2+M$5^2)</f>
+        <v>3.1999331699517102E-4</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2.59439452359769</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2.4829541959860602</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ref="Q20" si="39">ABS(O20-Q$5)/Q$5</f>
+        <v>9.3103065890882248E-5</v>
+      </c>
+      <c r="R20">
+        <f t="shared" ref="R20" si="40">ABS(P20-R$5)/R$5</f>
+        <v>1.8447045485277055E-5</v>
+      </c>
+      <c r="S20">
+        <f t="shared" ref="S20" si="41">SQRT((O20-Q$5)^2+(P20-R$5)^2)/SQRT(Q$5^2+R$5^2)</f>
+        <v>6.8457800551462915E-5</v>
+      </c>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="3:31" ht="15">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="3:31" ht="15">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="3:31">
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" ht="15">
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" t="s">
+        <v>7</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="3:31" ht="15">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>448</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2116</v>
+      </c>
+      <c r="F25" s="1">
+        <v>32344</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1915642</v>
+      </c>
+      <c r="H25" s="1">
+        <v>119</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1.17103660000429</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3.5647340818679E-3</v>
+      </c>
+      <c r="K25" s="1">
+        <v>-1.0419579416852799E-3</v>
+      </c>
+      <c r="L25">
+        <f>ABS(J25-L$5)/L$5</f>
+        <v>5.0979397521908488E-3</v>
+      </c>
+      <c r="M25">
+        <f>-ABS(K25-M$5)/M$5</f>
+        <v>1.2592751880738539E-2</v>
+      </c>
+      <c r="N25">
+        <f>SQRT((J25-L$5)^2+(K25-M$5)^2)/SQRT(L$5^2+M$5^2)</f>
+        <v>6.0076093038081294E-3</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2.4710994455826398</v>
+      </c>
+      <c r="P25" s="1">
+        <v>2.5794842663009501</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25:Q26" si="42">ABS(O25-Q$5)/Q$5</f>
+        <v>4.7434964097090693E-2</v>
+      </c>
+      <c r="R25">
+        <f t="shared" ref="R25:R26" si="43">ABS(P25-R$5)/R$5</f>
+        <v>3.8857940515888027E-2</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ref="S25:S26" si="44">SQRT((O25-Q$5)^2+(P25-R$5)^2)/SQRT(Q$5^2+R$5^2)</f>
+        <v>4.3545419495655019E-2</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="3:31" ht="15">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3122</v>
+      </c>
+      <c r="E26" s="1">
+        <v>16928</v>
+      </c>
+      <c r="F26" s="1">
+        <v>255321</v>
+      </c>
+      <c r="G26" s="1">
+        <v>15184431</v>
+      </c>
+      <c r="H26" s="1">
+        <v>206</v>
+      </c>
+      <c r="I26" s="1">
+        <v>18.179036100002101</v>
+      </c>
+      <c r="J26" s="1">
+        <v>3.57728477338026E-3</v>
+      </c>
+      <c r="K26" s="1">
+        <v>-1.0300063275985899E-3</v>
+      </c>
+      <c r="L26">
+        <f>ABS(J26-L$5)/L$5</f>
+        <v>1.5950953446106024E-3</v>
+      </c>
+      <c r="M26">
+        <f>-ABS(K26-M$5)/M$5</f>
+        <v>9.7796656811465084E-4</v>
+      </c>
+      <c r="N26">
+        <f>SQRT((J26-L$5)^2+(K26-M$5)^2)/SQRT(L$5^2+M$5^2)</f>
+        <v>1.5567082701833106E-3</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2.5913759130717802</v>
+      </c>
+      <c r="P26" s="1">
+        <v>2.4789584901661601</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="42"/>
+        <v>1.0705177868151042E-3</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="43"/>
+        <v>1.6276721038421247E-3</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="44"/>
+        <v>1.3655645627873934E-3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
